--- a/table/output_format.xlsx
+++ b/table/output_format.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\icyan\11_project\50_dim\opendata-pdf-to-csv-main\opendata-pdf-to-csv\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EF8A8F-316A-4A83-851F-F09F6249D2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5D1145-7D05-4FB0-9F77-8FAAF05B1F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40005" yWindow="135" windowWidth="17430" windowHeight="15390" tabRatio="501" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35160" yWindow="90" windowWidth="22275" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+  <si>
+    <t>name</t>
+  </si>
   <si>
     <t>北海道</t>
   </si>
@@ -168,92 +166,82 @@
     <t>沖縄県</t>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>施設名</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療機関名</t>
   </si>
   <si>
     <t>郵便番号</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>住所</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>電話番号</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ウェブサイトURL</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>産科、婦人科又は産婦人科の標榜の有無</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療機関における緊急避妊にかかる対面診療への対応可能時間帯</t>
   </si>
   <si>
     <t>医療機関における緊急避妊に係る対面診療への対応可能時間帯</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療機関における緊急避妊への対応可能時間帯</t>
+  </si>
+  <si>
+    <t>常時の緊急避妊薬の在庫の有無</t>
+  </si>
+  <si>
+    <t>都道府県</t>
   </si>
   <si>
     <t>市町村</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>市町村コード</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>緯度</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療機関における緊急避妊にかかる対面診療への対応可能時間帯</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療機関における緊急避妊への対応可能時間帯</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療機関における緊急避妊への対応可能時間帯(祝日のある週は診療日が異なる可能性がありますので事前に対応可能か電話で確認することをおすすめします。)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>常時の緊急避妊薬の在庫の有無</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>都道府県</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>経度</t>
-    <rPh sb="0" eb="2">
-      <t>ケイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>産科、婦人科又は産婦人科標榜の有無</t>
+  </si>
+  <si>
+    <t>医療機関における緊急避妊への対応可能時間帯（祝日のある週は診療日が異なる可能性がありますので事前に対応可能か電話で確認することをおすすめします。）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -267,7 +255,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -279,17 +274,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -336,20 +332,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -379,12 +375,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -423,392 +419,1025 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="48" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
-      <c r="A1" t="s">
+    <row r="1" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
-      <c r="A2" t="s">
+    <row r="2" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
     </row>
-    <row r="3" spans="1:48">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
+    <row r="3" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
     </row>
-    <row r="4" spans="1:48">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
+    <row r="4" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
     </row>
-    <row r="5" spans="1:48">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
+    <row r="5" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="1:48">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
+    <row r="6" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="1:48">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
+    <row r="7" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
     </row>
-    <row r="8" spans="1:48">
-      <c r="A8" t="s">
+    <row r="8" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+    </row>
+    <row r="9" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+    </row>
+    <row r="10" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+    </row>
+    <row r="11" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Z8" t="s">
-        <v>59</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
     </row>
-    <row r="9" spans="1:48">
-      <c r="A9" t="s">
+    <row r="12" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
     </row>
-    <row r="10" spans="1:48">
-      <c r="A10" t="s">
+    <row r="13" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
     </row>
-    <row r="11" spans="1:48">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48">
-      <c r="A14" t="s">
+    <row r="14" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/table/output_format.xlsx
+++ b/table/output_format.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\icyan\11_project\50_dim\opendata-pdf-to-csv-main\opendata-pdf-to-csv\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5D1145-7D05-4FB0-9F77-8FAAF05B1F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAFEB88-8987-42C9-8318-3E073F21796A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35160" yWindow="90" windowWidth="22275" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29865" yWindow="1665" windowWidth="21825" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -166,58 +177,59 @@
     <t>沖縄県</t>
   </si>
   <si>
-    <t>施設名</t>
-  </si>
-  <si>
     <t>医療機関名</t>
   </si>
   <si>
-    <t>郵便番号</t>
-  </si>
-  <si>
-    <t>住所</t>
-  </si>
-  <si>
-    <t>電話番号</t>
-  </si>
-  <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>産科、婦人科又は産婦人科の標榜の有無</t>
-  </si>
-  <si>
-    <t>医療機関における緊急避妊にかかる対面診療への対応可能時間帯</t>
-  </si>
-  <si>
     <t>医療機関における緊急避妊に係る対面診療への対応可能時間帯</t>
   </si>
   <si>
     <t>医療機関における緊急避妊への対応可能時間帯</t>
   </si>
   <si>
-    <t>常時の緊急避妊薬の在庫の有無</t>
-  </si>
-  <si>
-    <t>都道府県</t>
-  </si>
-  <si>
-    <t>市町村</t>
-  </si>
-  <si>
-    <t>市町村コード</t>
-  </si>
-  <si>
-    <t>緯度</t>
-  </si>
-  <si>
-    <t>経度</t>
-  </si>
-  <si>
     <t>産科、婦人科又は産婦人科標榜の有無</t>
   </si>
   <si>
     <t>医療機関における緊急避妊への対応可能時間帯（祝日のある週は診療日が異なる可能性がありますので事前に対応可能か電話で確認することをおすすめします。）</t>
+  </si>
+  <si>
+    <t>連絡先_郵便番号</t>
+  </si>
+  <si>
+    <t>連絡先_住所</t>
+  </si>
+  <si>
+    <t>連絡先_電話番号</t>
+  </si>
+  <si>
+    <t>連絡先_FormURL</t>
+  </si>
+  <si>
+    <t>緊急避妊に係る診療が可能な産婦人科医療機関等_産科、婦人科又は産婦人科の標榜の有無</t>
+  </si>
+  <si>
+    <t>緊急避妊に係る診療が可能な産婦人科医療機関等_医療機関における緊急避妊にかかる対面診療への対応可能時間帯</t>
+  </si>
+  <si>
+    <t>緊急避妊に係る診療が可能な産婦人科医療機関等_常時の緊急避妊薬の在庫の有無</t>
+  </si>
+  <si>
+    <t>住所_都道府県</t>
+  </si>
+  <si>
+    <t>住所_市区町村（郡）</t>
+  </si>
+  <si>
+    <t>施設_市区町村コード</t>
+  </si>
+  <si>
+    <t>住所_緯度</t>
+  </si>
+  <si>
+    <t>住所_経度</t>
+  </si>
+  <si>
+    <t>施設_名称</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -274,11 +286,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,16 +606,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A1:A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="48" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="3" customWidth="1"/>
+    <col min="2" max="48" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,16 +762,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -798,9 +816,9 @@
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
     </row>
-    <row r="3" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -850,9 +868,9 @@
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
     </row>
-    <row r="4" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -902,9 +920,9 @@
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
     </row>
-    <row r="5" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -954,9 +972,9 @@
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1006,9 +1024,9 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1023,9 +1041,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1060,13 +1076,11 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
     </row>
-    <row r="8" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1074,18 +1088,12 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1094,13 +1102,9 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
@@ -1124,9 +1128,9 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
     </row>
-    <row r="9" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1176,9 +1180,9 @@
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
     </row>
-    <row r="10" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1228,9 +1232,9 @@
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
     </row>
-    <row r="11" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1280,9 +1284,9 @@
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
     </row>
-    <row r="12" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1297,7 +1301,9 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1332,11 +1338,13 @@
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
     </row>
-    <row r="13" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1344,12 +1352,18 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1358,9 +1372,13 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
+      <c r="X13" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="Z13" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -1384,9 +1402,9 @@
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
     </row>
-    <row r="14" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>

--- a/table/output_format.xlsx
+++ b/table/output_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\icyan\11_project\50_dim\opendata-pdf-to-csv-main\opendata-pdf-to-csv\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\icyan_local\11_project\50_dim\opendata-pdf-to-csv-main\opendata-pdf-to-csv\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C53689F-DBCA-4D30-806E-0B0AA1F28D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8533E7-02A5-4707-A8CD-0080A9BEA00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36630" yWindow="300" windowWidth="20880" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -289,6 +289,10 @@
   </si>
   <si>
     <t>医療機関における緊急避妊にかかる対面診療への対応可能時間帯</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -662,11 +666,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AV14"/>
+  <dimension ref="A1:AV15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2720,6 +2724,152 @@
         <v>78</v>
       </c>
     </row>
+    <row r="15" spans="1:48" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV15" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
